--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0210 - Role selain sales mengakses menu.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0210 - Role selain sales mengakses menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF734E37-343F-4C2F-BA54-123FF02B9918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB59FFD-B075-482B-B714-50F95E74AFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="2700" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="3330" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCD0210" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -638,7 +638,9 @@
       <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:21" ht="25.5">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
@@ -665,7 +667,9 @@
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:21" ht="25.5">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
@@ -693,7 +697,9 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:21" ht="25.5">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
@@ -717,7 +723,9 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="25.5">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
